--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_original/ori4/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_original/ori4/42/word_level_predictions_42.xlsx
@@ -29,17 +29,12 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFB6B6"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -60,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -762,156 +756,156 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" t="n">
         <v>0</v>
       </c>
-      <c r="B7" s="2" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode . Unable to hover . Fly with caution .</t>
         </is>
       </c>
-      <c r="C7" s="2" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Unable</t>
         </is>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" t="n">
         <v>5</v>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="b">
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K7" t="b">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
         <v>0</v>
       </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="b">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Aircraft in Attitude mode . Unable to hover . Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>6</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
         <v>0</v>
       </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode . Unable to hover . Fly with caution .</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft in Attitude mode . Unable to hover . Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>hover</t>
         </is>
       </c>
-      <c r="D9" s="2" t="n">
+      <c r="D9" t="n">
         <v>7</v>
       </c>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G9" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -14646,158 +14640,158 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" s="2" t="n">
+      <c r="A274" t="n">
         <v>15</v>
       </c>
-      <c r="B274" s="2" t="inlineStr">
+      <c r="B274" t="inlineStr">
         <is>
           <t>No GPS signal . Unable to hover . Fly with caution .</t>
         </is>
       </c>
-      <c r="C274" s="2" t="inlineStr">
+      <c r="C274" t="inlineStr">
         <is>
           <t>Unable</t>
         </is>
       </c>
-      <c r="D274" s="2" t="n">
+      <c r="D274" t="n">
         <v>4</v>
       </c>
-      <c r="E274" s="2" t="inlineStr">
+      <c r="E274" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F274" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G274" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H274" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I274" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J274" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K274" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L274" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G274" t="b">
+        <v>1</v>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I274" t="b">
+        <v>1</v>
+      </c>
+      <c r="J274" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K274" t="b">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="275">
-      <c r="A275" s="2" t="n">
+      <c r="A275" t="n">
         <v>15</v>
       </c>
-      <c r="B275" s="2" t="inlineStr">
+      <c r="B275" t="inlineStr">
         <is>
           <t>No GPS signal . Unable to hover . Fly with caution .</t>
         </is>
       </c>
-      <c r="C275" s="2" t="inlineStr">
+      <c r="C275" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D275" s="2" t="n">
+      <c r="D275" t="n">
         <v>5</v>
       </c>
-      <c r="E275" s="2" t="inlineStr">
+      <c r="E275" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F275" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G275" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H275" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I275" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J275" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K275" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L275" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G275" t="b">
+        <v>1</v>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I275" t="b">
+        <v>1</v>
+      </c>
+      <c r="J275" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K275" t="b">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="276">
-      <c r="A276" s="2" t="n">
+      <c r="A276" t="n">
         <v>15</v>
       </c>
-      <c r="B276" s="2" t="inlineStr">
+      <c r="B276" t="inlineStr">
         <is>
           <t>No GPS signal . Unable to hover . Fly with caution .</t>
         </is>
       </c>
-      <c r="C276" s="2" t="inlineStr">
+      <c r="C276" t="inlineStr">
         <is>
           <t>hover</t>
         </is>
       </c>
-      <c r="D276" s="2" t="n">
+      <c r="D276" t="n">
         <v>6</v>
       </c>
-      <c r="E276" s="2" t="inlineStr">
+      <c r="E276" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F276" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G276" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H276" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I276" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J276" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K276" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L276" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G276" t="b">
+        <v>1</v>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I276" t="b">
+        <v>1</v>
+      </c>
+      <c r="J276" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K276" t="b">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -15218,208 +15212,208 @@
       </c>
     </row>
     <row r="285">
-      <c r="A285" s="2" t="n">
+      <c r="A285" t="n">
         <v>16</v>
       </c>
-      <c r="B285" s="2" t="inlineStr">
+      <c r="B285" t="inlineStr">
         <is>
           <t>No GPS . Return to Home failed . Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C285" s="2" t="inlineStr">
+      <c r="C285" t="inlineStr">
         <is>
           <t>Return</t>
         </is>
       </c>
-      <c r="D285" s="2" t="n">
+      <c r="D285" t="n">
         <v>3</v>
       </c>
-      <c r="E285" s="2" t="inlineStr">
+      <c r="E285" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F285" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G285" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H285" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I285" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J285" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K285" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L285" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G285" t="b">
+        <v>1</v>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I285" t="b">
+        <v>1</v>
+      </c>
+      <c r="J285" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K285" t="b">
+        <v>1</v>
+      </c>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="286">
-      <c r="A286" s="2" t="n">
+      <c r="A286" t="n">
         <v>16</v>
       </c>
-      <c r="B286" s="2" t="inlineStr">
+      <c r="B286" t="inlineStr">
         <is>
           <t>No GPS . Return to Home failed . Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C286" s="2" t="inlineStr">
+      <c r="C286" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D286" s="2" t="n">
+      <c r="D286" t="n">
         <v>4</v>
       </c>
-      <c r="E286" s="2" t="inlineStr">
+      <c r="E286" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F286" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G286" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H286" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I286" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J286" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K286" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L286" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G286" t="b">
+        <v>1</v>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I286" t="b">
+        <v>1</v>
+      </c>
+      <c r="J286" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K286" t="b">
+        <v>1</v>
+      </c>
+      <c r="L286" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="287">
-      <c r="A287" s="2" t="n">
+      <c r="A287" t="n">
         <v>16</v>
       </c>
-      <c r="B287" s="2" t="inlineStr">
+      <c r="B287" t="inlineStr">
         <is>
           <t>No GPS . Return to Home failed . Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C287" s="2" t="inlineStr">
+      <c r="C287" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="D287" s="2" t="n">
+      <c r="D287" t="n">
         <v>5</v>
       </c>
-      <c r="E287" s="2" t="inlineStr">
+      <c r="E287" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F287" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G287" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H287" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I287" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J287" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K287" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L287" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G287" t="b">
+        <v>1</v>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I287" t="b">
+        <v>1</v>
+      </c>
+      <c r="J287" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K287" t="b">
+        <v>1</v>
+      </c>
+      <c r="L287" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="288">
-      <c r="A288" s="2" t="n">
+      <c r="A288" t="n">
         <v>16</v>
       </c>
-      <c r="B288" s="2" t="inlineStr">
+      <c r="B288" t="inlineStr">
         <is>
           <t>No GPS . Return to Home failed . Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C288" s="2" t="inlineStr">
+      <c r="C288" t="inlineStr">
         <is>
           <t>failed</t>
         </is>
       </c>
-      <c r="D288" s="2" t="n">
+      <c r="D288" t="n">
         <v>6</v>
       </c>
-      <c r="E288" s="2" t="inlineStr">
+      <c r="E288" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F288" s="2" t="inlineStr">
+      <c r="F288" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G288" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H288" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I288" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J288" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K288" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L288" s="2" t="inlineStr">
+      <c r="G288" t="b">
+        <v>1</v>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I288" t="b">
+        <v>1</v>
+      </c>
+      <c r="J288" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K288" t="b">
+        <v>1</v>
+      </c>
+      <c r="L288" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_original/ori4/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_original/ori4/42/word_level_predictions_42.xlsx
@@ -29,12 +29,17 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFB6B6"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -55,11 +60,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -756,156 +762,156 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode . Unable to hover . Fly with caution .</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" s="2" t="inlineStr">
         <is>
           <t>Unable</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I7" t="b">
-        <v>1</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K7" t="b">
-        <v>1</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="2" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode . Unable to hover . Fly with caution .</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I8" t="b">
-        <v>1</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K8" t="b">
-        <v>1</v>
-      </c>
-      <c r="L8" t="inlineStr">
+      <c r="G8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="2" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode . Unable to hover . Fly with caution .</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="2" t="inlineStr">
         <is>
           <t>hover</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E9" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I9" t="b">
-        <v>1</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K9" t="b">
-        <v>1</v>
-      </c>
-      <c r="L9" t="inlineStr">
+      <c r="G9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -14640,158 +14646,158 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" t="n">
+      <c r="A274" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B274" t="inlineStr">
+      <c r="B274" s="2" t="inlineStr">
         <is>
           <t>No GPS signal . Unable to hover . Fly with caution .</t>
         </is>
       </c>
-      <c r="C274" t="inlineStr">
+      <c r="C274" s="2" t="inlineStr">
         <is>
           <t>Unable</t>
         </is>
       </c>
-      <c r="D274" t="n">
+      <c r="D274" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E274" t="inlineStr">
+      <c r="E274" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F274" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G274" t="b">
-        <v>1</v>
-      </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I274" t="b">
-        <v>1</v>
-      </c>
-      <c r="J274" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K274" t="b">
-        <v>1</v>
-      </c>
-      <c r="L274" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F274" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G274" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H274" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I274" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J274" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K274" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L274" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="275">
-      <c r="A275" t="n">
+      <c r="A275" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B275" t="inlineStr">
+      <c r="B275" s="2" t="inlineStr">
         <is>
           <t>No GPS signal . Unable to hover . Fly with caution .</t>
         </is>
       </c>
-      <c r="C275" t="inlineStr">
+      <c r="C275" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D275" t="n">
+      <c r="D275" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E275" t="inlineStr">
+      <c r="E275" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F275" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G275" t="b">
-        <v>1</v>
-      </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I275" t="b">
-        <v>1</v>
-      </c>
-      <c r="J275" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K275" t="b">
-        <v>1</v>
-      </c>
-      <c r="L275" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F275" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G275" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H275" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I275" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J275" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K275" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L275" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="276">
-      <c r="A276" t="n">
+      <c r="A276" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B276" t="inlineStr">
+      <c r="B276" s="2" t="inlineStr">
         <is>
           <t>No GPS signal . Unable to hover . Fly with caution .</t>
         </is>
       </c>
-      <c r="C276" t="inlineStr">
+      <c r="C276" s="2" t="inlineStr">
         <is>
           <t>hover</t>
         </is>
       </c>
-      <c r="D276" t="n">
+      <c r="D276" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E276" t="inlineStr">
+      <c r="E276" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F276" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G276" t="b">
-        <v>1</v>
-      </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I276" t="b">
-        <v>1</v>
-      </c>
-      <c r="J276" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K276" t="b">
-        <v>1</v>
-      </c>
-      <c r="L276" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F276" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G276" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H276" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I276" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J276" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K276" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L276" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -15212,208 +15218,208 @@
       </c>
     </row>
     <row r="285">
-      <c r="A285" t="n">
+      <c r="A285" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B285" t="inlineStr">
+      <c r="B285" s="2" t="inlineStr">
         <is>
           <t>No GPS . Return to Home failed . Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C285" t="inlineStr">
+      <c r="C285" s="2" t="inlineStr">
         <is>
           <t>Return</t>
         </is>
       </c>
-      <c r="D285" t="n">
+      <c r="D285" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E285" t="inlineStr">
+      <c r="E285" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F285" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G285" t="b">
-        <v>1</v>
-      </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I285" t="b">
-        <v>1</v>
-      </c>
-      <c r="J285" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K285" t="b">
-        <v>1</v>
-      </c>
-      <c r="L285" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F285" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G285" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H285" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I285" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J285" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K285" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L285" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="286">
-      <c r="A286" t="n">
+      <c r="A286" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B286" t="inlineStr">
+      <c r="B286" s="2" t="inlineStr">
         <is>
           <t>No GPS . Return to Home failed . Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C286" t="inlineStr">
+      <c r="C286" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D286" t="n">
+      <c r="D286" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E286" t="inlineStr">
+      <c r="E286" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F286" t="inlineStr">
+      <c r="F286" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G286" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H286" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I286" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J286" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K286" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L286" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B287" s="2" t="inlineStr">
+        <is>
+          <t>No GPS . Return to Home failed . Return the aircraft to home manually .</t>
+        </is>
+      </c>
+      <c r="C287" s="2" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="D287" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E287" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G286" t="b">
-        <v>1</v>
-      </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I286" t="b">
-        <v>1</v>
-      </c>
-      <c r="J286" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K286" t="b">
-        <v>1</v>
-      </c>
-      <c r="L286" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="n">
+      <c r="F287" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G287" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H287" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I287" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J287" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K287" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L287" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B287" t="inlineStr">
+      <c r="B288" s="2" t="inlineStr">
         <is>
           <t>No GPS . Return to Home failed . Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C287" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="D287" t="n">
-        <v>5</v>
-      </c>
-      <c r="E287" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F287" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G287" t="b">
-        <v>1</v>
-      </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I287" t="b">
-        <v>1</v>
-      </c>
-      <c r="J287" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K287" t="b">
-        <v>1</v>
-      </c>
-      <c r="L287" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="n">
-        <v>16</v>
-      </c>
-      <c r="B288" t="inlineStr">
-        <is>
-          <t>No GPS . Return to Home failed . Return the aircraft to home manually .</t>
-        </is>
-      </c>
-      <c r="C288" t="inlineStr">
+      <c r="C288" s="2" t="inlineStr">
         <is>
           <t>failed</t>
         </is>
       </c>
-      <c r="D288" t="n">
+      <c r="D288" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E288" t="inlineStr">
+      <c r="E288" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F288" t="inlineStr">
+      <c r="F288" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G288" t="b">
-        <v>1</v>
-      </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I288" t="b">
-        <v>1</v>
-      </c>
-      <c r="J288" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K288" t="b">
-        <v>1</v>
-      </c>
-      <c r="L288" t="inlineStr">
+      <c r="G288" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H288" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I288" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J288" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K288" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L288" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
